--- a/_ConfigExcels/Datas/dungeon_wave.xlsx
+++ b/_ConfigExcels/Datas/dungeon_wave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="20145" windowHeight="17175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="2">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="2">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>

--- a/_ConfigExcels/Datas/dungeon_wave.xlsx
+++ b/_ConfigExcels/Datas/dungeon_wave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="17175"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>##var</t>
   </si>
@@ -50,13 +50,13 @@
     <t>init_time</t>
   </si>
   <si>
+    <t>enemy_init</t>
+  </si>
+  <si>
     <t>enemy_id</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Beans.Enemy_Init</t>
+    <t>angles</t>
   </si>
   <si>
     <t>##</t>
@@ -68,10 +68,10 @@
     <t>怪物id</t>
   </si>
   <si>
-    <t>1001|1</t>
-  </si>
-  <si>
-    <t>1001|3</t>
+    <t>角度（有几个就会生成几个）</t>
+  </si>
+  <si>
+    <t>0;10;-10</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1021,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1032,17 +1032,17 @@
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19" style="2" customWidth="1"/>
-    <col min="8" max="9" width="18.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23" style="2" customWidth="1"/>
-    <col min="13" max="13" width="38.125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="29.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="2" customWidth="1"/>
+    <col min="7" max="8" width="18.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23" style="2" customWidth="1"/>
+    <col min="12" max="12" width="38.125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1053,8 +1053,9 @@
         <v>2</v>
       </c>
       <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
-    <row r="2" customFormat="1" spans="1:12">
+    <row r="2" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1065,38 +1066,38 @@
         <v>5</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+    <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+    <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1106,71 +1107,91 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:5">
       <c r="B6" s="2">
         <v>1001</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
+      <c r="D6" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="3:5">
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
+      <c r="D7" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="3:5">
       <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
+      <c r="D8" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
+    <row r="9" spans="3:5">
       <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
+      <c r="D9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="3:5">
       <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
+      <c r="D10" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:5">
       <c r="B11" s="2">
         <v>1002</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
+      <c r="D11" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/_ConfigExcels/Datas/dungeon_wave.xlsx
+++ b/_ConfigExcels/Datas/dungeon_wave.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -62,7 +62,7 @@
     <t>##</t>
   </si>
   <si>
-    <t>诞生时间</t>
+    <t>基于传送门出现后的诞生时间</t>
   </si>
   <si>
     <t>怪物id</t>
@@ -685,15 +685,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
@@ -1024,13 +1021,13 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="29.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="19" style="2" customWidth="1"/>
@@ -1052,8 +1049,8 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1065,8 +1062,8 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1084,7 +1081,7 @@
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -1113,7 +1110,7 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="2">

--- a/_ConfigExcels/Datas/dungeon_wave.xlsx
+++ b/_ConfigExcels/Datas/dungeon_wave.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>##var</t>
   </si>
@@ -61,70 +61,20 @@
     <t>enemy_id</t>
   </si>
   <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>基于传送门出现后的诞生时间</t>
+  </si>
+  <si>
+    <t>怪物id</t>
+  </si>
+  <si>
+    <t>角度（有几个就会生成几个，不够可以右边加列数）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>angles</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>基于传送门出现后的诞生时间</t>
-  </si>
-  <si>
-    <t>怪物id</t>
-  </si>
-  <si>
-    <t>角度（有几个就会生成几个）</t>
-  </si>
-  <si>
-    <t>0;10;-10</t>
-  </si>
-  <si>
-    <t>0;20;-20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;110;250</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5;0;5</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10;5;0;-5;-10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -145,12 +95,14 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -177,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -189,6 +141,43 @@
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
@@ -207,7 +196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,16 +204,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,10 +506,7 @@
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="27" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19" style="2" customWidth="1"/>
-    <col min="7" max="8" width="18.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16" style="2" customWidth="1"/>
+    <col min="5" max="9" width="10.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="20.625" style="2" customWidth="1"/>
     <col min="11" max="11" width="23" style="2" customWidth="1"/>
     <col min="12" max="12" width="38.125" style="2" customWidth="1"/>
@@ -531,11 +520,15 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -544,15 +537,15 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
@@ -563,10 +556,14 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -575,27 +572,34 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
@@ -618,8 +622,14 @@
       <c r="D7" s="2">
         <v>1001</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -662,8 +672,14 @@
       <c r="D11" s="2">
         <v>1001</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -673,8 +689,14 @@
       <c r="D12" s="2">
         <v>1001</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>110</v>
+      </c>
+      <c r="G12" s="2">
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -717,44 +739,74 @@
       <c r="D16" s="2">
         <v>1001</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
         <v>18</v>
       </c>
       <c r="D17" s="2">
         <v>1001</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="4">
+        <v>-5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
         <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>1001</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="4">
+        <v>-8</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C19" s="2">
         <v>22</v>
       </c>
       <c r="D19" s="2">
         <v>1001</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="4">
+        <v>150</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
         <v>24</v>
       </c>
@@ -765,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>1002</v>
       </c>
@@ -779,18 +831,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C22" s="2">
         <v>5</v>
       </c>
       <c r="D22" s="2">
         <v>1001</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C23" s="2">
         <v>7</v>
       </c>
@@ -801,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" s="2">
         <v>9</v>
       </c>
@@ -812,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C25" s="2">
         <v>11</v>
       </c>
@@ -823,29 +881,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C26" s="2">
         <v>13</v>
       </c>
       <c r="D26" s="2">
         <v>1001</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C27" s="2">
         <v>15</v>
       </c>
       <c r="D27" s="2">
         <v>1001</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>110</v>
+      </c>
+      <c r="G27" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C28" s="2">
         <v>17</v>
       </c>
@@ -856,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C29" s="2">
         <v>17.2</v>
       </c>
@@ -867,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C30" s="2">
         <v>17.399999999999999</v>
       </c>
@@ -878,51 +948,81 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C31" s="2">
         <v>17.600000000000001</v>
       </c>
       <c r="D31" s="2">
         <v>1001</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="3">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-5</v>
+      </c>
+      <c r="I31" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>19</v>
       </c>
       <c r="D32" s="2">
         <v>1001</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="4">
+        <v>-5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>21</v>
       </c>
       <c r="D33" s="2">
         <v>1001</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="4">
+        <v>-8</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>23</v>
       </c>
       <c r="D34" s="2">
         <v>1001</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="4">
+        <v>-5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>25</v>
       </c>
@@ -934,10 +1034,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="D3:E3"/>
+  <mergeCells count="5">
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/dungeon_wave.xlsx
+++ b/_ConfigExcels/Datas/dungeon_wave.xlsx
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:I5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,19 +740,19 @@
         <v>1001</v>
       </c>
       <c r="E16" s="3">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2">
         <v>10</v>
       </c>
-      <c r="F16" s="2">
-        <v>5</v>
-      </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="I16" s="2">
-        <v>-10</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -956,19 +956,19 @@
         <v>1001</v>
       </c>
       <c r="E31" s="3">
+        <v>15</v>
+      </c>
+      <c r="F31" s="2">
         <v>10</v>
       </c>
-      <c r="F31" s="2">
-        <v>5</v>
-      </c>
       <c r="G31" s="2">
         <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="I31" s="2">
-        <v>-10</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">

--- a/_ConfigExcels/Datas/dungeon_wave.xlsx
+++ b/_ConfigExcels/Datas/dungeon_wave.xlsx
@@ -115,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,6 +223,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:J31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,35 +626,35 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1001</v>
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1002</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2">
         <v>1001</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-10</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
         <v>1001</v>
@@ -656,7 +665,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
         <v>1001</v>
@@ -667,162 +676,159 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>1001</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2">
-        <v>-20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2">
         <v>1001</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="G12" s="2">
-        <v>250</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2">
         <v>1001</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>110</v>
+      </c>
+      <c r="G13" s="2">
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" s="2">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2">
         <v>1001</v>
       </c>
       <c r="E14" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
-        <v>16.399999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="D15" s="2">
         <v>1001</v>
       </c>
       <c r="E15" s="2">
-        <v>-5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
-        <v>16.600000000000001</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D16" s="2">
         <v>1001</v>
       </c>
-      <c r="E16" s="3">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>-10</v>
-      </c>
-      <c r="I16" s="2">
-        <v>-15</v>
+      <c r="E16" s="2">
+        <v>-5</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
-        <v>18</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D17" s="2">
         <v>1001</v>
       </c>
-      <c r="E17" s="4">
-        <v>-5</v>
+      <c r="E17" s="3">
+        <v>15</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-10</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-15</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2">
         <v>1001</v>
       </c>
       <c r="E18" s="4">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C19" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
         <v>1001</v>
       </c>
       <c r="E19" s="4">
-        <v>150</v>
+        <v>-8</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>-150</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E20" s="4">
+        <v>150</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="2">
         <v>24</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="2">
-        <v>1002</v>
-      </c>
-      <c r="C21" s="2">
-        <v>3</v>
       </c>
       <c r="D21" s="2">
         <v>1001</v>
@@ -833,46 +839,40 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C22" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2">
         <v>1001</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2">
-        <v>-10</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C23" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2">
         <v>1001</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>1001</v>
       </c>
       <c r="E24" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C25" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>1001</v>
@@ -883,41 +883,38 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C26" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>1001</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>20</v>
-      </c>
-      <c r="G26" s="2">
-        <v>-20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C27" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>1001</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
+      <c r="E27" s="4">
+        <v>150</v>
       </c>
       <c r="F27" s="2">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>250</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>1002</v>
+      </c>
       <c r="C28" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2">
         <v>1001</v>
@@ -928,109 +925,265 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C29" s="2">
-        <v>17.2</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2">
         <v>1001</v>
       </c>
       <c r="E29" s="2">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2">
+        <v>-10</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C30" s="2">
-        <v>17.399999999999999</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2">
         <v>1001</v>
       </c>
       <c r="E30" s="2">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C31" s="2">
-        <v>17.600000000000001</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2">
         <v>1001</v>
       </c>
-      <c r="E31" s="3">
-        <v>15</v>
-      </c>
-      <c r="F31" s="2">
-        <v>10</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>-10</v>
-      </c>
-      <c r="I31" s="2">
-        <v>-15</v>
+      <c r="E31" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C33" s="2">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="2">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>110</v>
+      </c>
+      <c r="G34" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="2">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E37" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C38" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E38" s="3">
+        <v>15</v>
+      </c>
+      <c r="F38" s="2">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>-10</v>
+      </c>
+      <c r="I38" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="2">
         <v>19</v>
       </c>
-      <c r="D32" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="D39" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E39" s="4">
         <v>-5</v>
       </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C33" s="2">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="2">
         <v>21</v>
       </c>
-      <c r="D33" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="D40" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E40" s="4">
         <v>-8</v>
       </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C34" s="2">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="2">
         <v>23</v>
       </c>
-      <c r="D34" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="D41" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E41" s="4">
         <v>-5</v>
       </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C35" s="2">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="2">
         <v>25</v>
       </c>
-      <c r="D35" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
+      <c r="D42" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="2">
+        <v>26</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C44" s="2">
+        <v>27</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E44" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C45" s="2">
+        <v>28</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C46" s="2">
+        <v>29</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C47" s="2">
+        <v>30</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E47" s="4">
+        <v>150</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>-150</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/dungeon_wave.xlsx
+++ b/_ConfigExcels/Datas/dungeon_wave.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>##var</t>
   </si>
@@ -77,6 +77,14 @@
   </si>
   <si>
     <t>武器小怪</t>
+  </si>
+  <si>
+    <t>适合中间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大开大合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -502,25 +510,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="27" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.5" style="2" customWidth="1"/>
-    <col min="6" max="10" width="10.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23" style="2" customWidth="1"/>
-    <col min="13" max="13" width="38.125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="27" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.5" style="2" customWidth="1"/>
+    <col min="7" max="11" width="10.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23" style="2" customWidth="1"/>
+    <col min="14" max="14" width="38.125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,17 +536,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -546,833 +555,842 @@
         <v>4</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>1001</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
-        <v>1001</v>
-      </c>
       <c r="F6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D7" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="2">
-        <v>1001</v>
-      </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <v>10</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>-10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D8" s="2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E8" s="2">
         <v>8</v>
       </c>
-      <c r="E8" s="2">
-        <v>1001</v>
-      </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <v>10</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D9" s="2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E9" s="2">
         <v>11</v>
       </c>
-      <c r="E9" s="2">
-        <v>1001</v>
-      </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>10</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D10" s="2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E10" s="2">
         <v>14</v>
       </c>
-      <c r="E10" s="2">
-        <v>1001</v>
-      </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
         <v>10</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D11" s="2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E11" s="2">
         <v>17</v>
       </c>
-      <c r="E11" s="2">
-        <v>1001</v>
-      </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
         <v>20</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>-20</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D12" s="2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E12" s="2">
         <v>20</v>
       </c>
-      <c r="E12" s="2">
-        <v>1001</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
         <v>110</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D13" s="2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E13" s="2">
         <v>23</v>
       </c>
-      <c r="E13" s="2">
-        <v>1001</v>
-      </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
         <v>10</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D14" s="2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E14" s="2">
         <v>24.2</v>
       </c>
-      <c r="E14" s="2">
-        <v>1001</v>
-      </c>
       <c r="F14" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>15</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>-5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E15" s="2">
         <v>25.4</v>
       </c>
-      <c r="E15" s="2">
-        <v>1001</v>
-      </c>
       <c r="F15" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G15" s="2">
         <v>-5</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>5</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>-15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D16" s="2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E16" s="2">
         <v>26.6</v>
       </c>
-      <c r="E16" s="2">
-        <v>1001</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G16" s="3">
         <v>15</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>10</v>
       </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
       <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
         <v>-10</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>-15</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D17" s="2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E17" s="2">
         <v>29</v>
       </c>
-      <c r="E17" s="2">
-        <v>1001</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G17" s="3">
         <v>-5</v>
       </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
       <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D18" s="2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E18" s="2">
         <v>32</v>
       </c>
-      <c r="E18" s="2">
-        <v>1001</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G18" s="3">
         <v>-8</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
       <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D19" s="2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E19" s="2">
         <v>35</v>
       </c>
-      <c r="E19" s="2">
-        <v>1001</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G19" s="3">
         <v>160</v>
       </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
       <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
         <v>-160</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D20" s="2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E20" s="2">
         <v>38</v>
       </c>
-      <c r="E20" s="2">
-        <v>1001</v>
-      </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
         <v>10</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D21" s="2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E21" s="2">
         <v>40</v>
       </c>
-      <c r="E21" s="2">
-        <v>1001</v>
-      </c>
       <c r="F21" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G21" s="2">
         <v>5</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>15</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>-5</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D22" s="2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E22" s="2">
         <v>42</v>
       </c>
-      <c r="E22" s="2">
-        <v>1001</v>
-      </c>
       <c r="F22" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G22" s="2">
         <v>-5</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>5</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>-15</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D23" s="2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E23" s="2">
         <v>44</v>
       </c>
-      <c r="E23" s="2">
-        <v>1001</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G23" s="3">
         <v>15</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>10</v>
       </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
       <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
         <v>-10</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>-15</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D24" s="2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E24" s="2">
         <v>46</v>
       </c>
-      <c r="E24" s="2">
-        <v>1001</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G24" s="3">
         <v>-5</v>
       </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
       <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D25" s="2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E25" s="2">
         <v>48</v>
       </c>
-      <c r="E25" s="2">
-        <v>1001</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G25" s="3">
         <v>-8</v>
       </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
       <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D26" s="2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E26" s="2">
         <v>50</v>
       </c>
-      <c r="E26" s="2">
-        <v>1001</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G26" s="3">
         <v>160</v>
       </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
       <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
         <v>-160</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>1002</v>
       </c>
-      <c r="D27" s="2">
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="2">
         <v>2</v>
       </c>
-      <c r="E27" s="2">
-        <v>1001</v>
-      </c>
       <c r="F27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D28" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E28" s="2">
         <v>5</v>
       </c>
-      <c r="E28" s="2">
-        <v>1001</v>
-      </c>
       <c r="F28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D29" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E29" s="2">
         <v>8</v>
       </c>
-      <c r="E29" s="2">
-        <v>1001</v>
-      </c>
       <c r="F29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D30" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E30" s="2">
         <v>11</v>
       </c>
-      <c r="E30" s="2">
-        <v>1001</v>
-      </c>
       <c r="F30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D31" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E31" s="2">
         <v>14</v>
       </c>
-      <c r="E31" s="2">
-        <v>1001</v>
-      </c>
       <c r="F31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D32" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E32" s="2">
         <v>17</v>
       </c>
-      <c r="E32" s="2">
-        <v>1001</v>
-      </c>
       <c r="F32" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G32" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D33" s="2">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E33" s="2">
         <v>20</v>
       </c>
-      <c r="E33" s="2">
-        <v>1001</v>
-      </c>
       <c r="F33" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G33" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D34" s="2">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E34" s="2">
         <v>23</v>
       </c>
-      <c r="E34" s="2">
-        <v>1001</v>
-      </c>
       <c r="F34" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G34" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D35" s="2">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E35" s="2">
         <v>26</v>
       </c>
-      <c r="E35" s="2">
-        <v>1001</v>
-      </c>
       <c r="F35" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G35" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D36" s="2">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E36" s="2">
         <v>29</v>
       </c>
-      <c r="E36" s="2">
-        <v>1001</v>
-      </c>
       <c r="F36" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G36" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D37" s="2">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E37" s="2">
         <v>32</v>
       </c>
-      <c r="E37" s="2">
-        <v>1001</v>
-      </c>
       <c r="F37" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G37" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="I37" s="2">
-        <v>20</v>
+        <v>-30</v>
       </c>
       <c r="J37" s="2">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D38" s="2">
+        <v>60</v>
+      </c>
+      <c r="K37" s="2">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E38" s="2">
         <v>35</v>
       </c>
-      <c r="E38" s="2">
-        <v>1001</v>
-      </c>
       <c r="F38" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G38" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="I38" s="2">
-        <v>20</v>
+        <v>-30</v>
       </c>
       <c r="J38" s="2">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D39" s="2">
+        <v>60</v>
+      </c>
+      <c r="K38" s="2">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E39" s="2">
         <v>38</v>
       </c>
-      <c r="E39" s="2">
-        <v>1001</v>
-      </c>
       <c r="F39" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G39" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="I39" s="2">
-        <v>20</v>
+        <v>-30</v>
       </c>
       <c r="J39" s="2">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D40" s="2">
+        <v>60</v>
+      </c>
+      <c r="K39" s="2">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E40" s="2">
         <v>41</v>
       </c>
-      <c r="E40" s="2">
-        <v>1001</v>
-      </c>
       <c r="F40" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G40" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="I40" s="2">
-        <v>20</v>
+        <v>-30</v>
       </c>
       <c r="J40" s="2">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D41" s="2">
+        <v>60</v>
+      </c>
+      <c r="K40" s="2">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E41" s="2">
         <v>44</v>
       </c>
-      <c r="E41" s="2">
-        <v>1001</v>
-      </c>
       <c r="F41" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G41" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="I41" s="2">
-        <v>20</v>
+        <v>-30</v>
       </c>
       <c r="J41" s="2">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D42" s="2">
+        <v>60</v>
+      </c>
+      <c r="K41" s="2">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E42" s="2">
         <v>47</v>
       </c>
-      <c r="E42" s="2">
-        <v>1001</v>
-      </c>
       <c r="F42" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G42" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="I42" s="2">
-        <v>20</v>
+        <v>-30</v>
       </c>
       <c r="J42" s="2">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D43" s="2">
+        <v>60</v>
+      </c>
+      <c r="K42" s="2">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E43" s="2">
         <v>50</v>
       </c>
-      <c r="E43" s="2">
-        <v>1001</v>
-      </c>
       <c r="F43" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G43" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="I43" s="2">
-        <v>20</v>
+        <v>-30</v>
       </c>
       <c r="J43" s="2">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D44" s="2">
+        <v>60</v>
+      </c>
+      <c r="K43" s="2">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E44" s="2">
         <v>53</v>
       </c>
-      <c r="E44" s="2">
-        <v>1001</v>
-      </c>
       <c r="F44" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G44" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="I44" s="2">
-        <v>20</v>
+        <v>-30</v>
       </c>
       <c r="J44" s="2">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D45" s="2">
+        <v>60</v>
+      </c>
+      <c r="K44" s="2">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E45" s="2">
         <v>56</v>
       </c>
-      <c r="E45" s="2">
-        <v>1001</v>
-      </c>
       <c r="F45" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G45" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="I45" s="2">
-        <v>20</v>
+        <v>-30</v>
       </c>
       <c r="J45" s="2">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D46" s="2">
+        <v>60</v>
+      </c>
+      <c r="K45" s="2">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E46" s="2">
         <v>59</v>
       </c>
-      <c r="E46" s="2">
-        <v>1001</v>
-      </c>
       <c r="F46" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="G46" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="I46" s="2">
-        <v>20</v>
+        <v>-30</v>
       </c>
       <c r="J46" s="2">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="K46" s="2">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="2">
+      <c r="E47" s="2">
         <v>1</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>1002</v>
       </c>
-      <c r="F47" s="2">
+      <c r="G47" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
